--- a/inst/tabelas_depara/depara_marca.xlsx
+++ b/inst/tabelas_depara/depara_marca.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wamorim/Documents/institutosoudapaz/isdp.armas/inst/tabelas_depara/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18F15ED-B8F4-B34B-A76F-DB3547DC1340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A86F58F-BC13-B545-BCEC-8C34349D13E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="7280" windowWidth="22940" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4700" yWindow="3000" windowWidth="22940" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2752" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2755" uniqueCount="1134">
   <si>
     <t>arma_marca</t>
   </si>
@@ -3417,6 +3417,12 @@
   </si>
   <si>
     <t>ítalo g.r.a.</t>
+  </si>
+  <si>
+    <t>mekanika</t>
+  </si>
+  <si>
+    <t>MEKANIKA</t>
   </si>
 </sst>
 </file>
@@ -3758,10 +3764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C988"/>
+  <dimension ref="A1:C989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A946" workbookViewId="0">
-      <selection activeCell="A960" sqref="A960"/>
+    <sheetView tabSelected="1" topLeftCell="A964" workbookViewId="0">
+      <selection activeCell="C990" sqref="C990"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14003,6 +14009,17 @@
         <v>57</v>
       </c>
     </row>
+    <row r="989" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A989" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B989" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C989" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
